--- a/DOWNLOADS/EDITAIS/U_153176_E_900162025_25-09-2025_09h00m/U_153176_E_900162025_25-09-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_153176_E_900162025_25-09-2025_09h00m/U_153176_E_900162025_25-09-2025_09h00m_master.xlsx
@@ -259,16 +259,16 @@
     <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Bag Violão Formato Folk, Aplicação: Instrumentos Musicais, Características Adicionais 1: Revestido Externo Sintético,Espaco Para Acessórios</t>
   </si>
   <si>
-    <t>Agogô Feito em ferro, com dois cones de tamanhos diferentes para gerar tons distintos, com acabamento oxidado para melhor ressonância sonora. Usado em diversas tradições musicais brasileiras, como samba e capoeira.</t>
-  </si>
-  <si>
-    <t>Atabaque Compacto Rum 11” 34 - 75cm - ATABAQUE CORDA PEQUENO (ideal para tocar sentado) 75 cm, com afinação em cunha, feito em madeira nobre peroba rosa, com reforço interno, alça para transporte, couro de boi selecionado e suporte (banco)</t>
+    <t>Feito em ferro, com dois cones de tamanhos diferentes para gerar tons distintos, com acabamento oxidado para melhor ressonância sonora. Usado em diversas tradições musicais brasileiras, como samba e capoeira.</t>
+  </si>
+  <si>
+    <t>Compacto Rum 11” 34 - 75cm - ATABAQUE CORDA PEQUENO (ideal para tocar sentado) 75 cm, com afinação em cunha, feito em madeira nobre peroba rosa, com reforço interno, alça para transporte, couro de boi selecionado e suporte (banco)</t>
   </si>
   <si>
     <t>Agbê XG (Extra Grande) - Agbê extra grande, confeccionado em cabaça natural de alta resistência, rede de contas de plástico resistentes, cabo reforçado em madeira. Som encorpado e vibrante, usado em apresentações de percussão afro-brasileira.</t>
   </si>
   <si>
-    <t>Agbê M (Médio)- Feito em cabaça média natural, com rede de contas de plástico resistente, cabo de madeira reforçado. Produz som característico, equilibrado, ideal para ritmos afro-brasileiros e samba de roda.</t>
+    <t>Agbe M (Médio)- Feito em cabaça média natural, com rede de contas de plástico resistente, cabo de madeira reforçado. Produz som característico, equilibrado, ideal para ritmos afro-brasileiros e samba de roda.</t>
   </si>
   <si>
     <t>Agbê (Xequerê) G - Confeccionado em cabaça natural de alta resistência, envolvido em rede de contas de plástico (miçangas). Som encorpado e vibrante, usado em apresentações de percussão afro-brasileira.</t>
@@ -283,7 +283,7 @@
     <t>Baqueta de tamborim 3 Hastes Cotonete Profissional Artesanal 38cm</t>
   </si>
   <si>
-    <t>Bumbo grave completo- Feito em madeira nobre (peroba rosa), 22 polegadas de diâmetro, couro de boi selecionado, com reforço interno, afinação em cunha e alças para transporte. Acompanha banco de suporte e chave de afinação. Som grave e profundo, ideal para marcação em blocos carnavalescos e bandas de percussão.</t>
+    <t>Bumpbo grave completo- Feito em madeira nobre (peroba rosa), 22 polegadas de diâmetro, couro de boi selecionado, com reforço interno, afinação em cunha e alças para transporte. Acompanha banco de suporte e chave de afinação. Som grave e profundo, ideal para marcação em blocos carnavalescos e bandas de percussão.</t>
   </si>
   <si>
     <t>Berimbau berra boi-Feito com madeira pequiá tratada e envernizada, medindo 1,60m, com cabaça de acabamento refinado e envernizada. Acompanha caxixi artesanal de junco, baqueta de tucum e dobrão de metal. Som grave e potente, ideal para rodas de capoeira tradicionais.</t>
@@ -298,13 +298,13 @@
     <t>Berimbau de tamanho médio, medindo 1,53m, feito com madeira pequiá tratada e envernizada. Acompanha cabaça de acabamento envernizado, caxixi de junco, baqueta de tucum e dobrão de metal. Som intermediário, ideal para diferentes estilos de toque.</t>
   </si>
   <si>
-    <t>Cuíca 6": Corpo alumínio liso polido e chapa grossa, pele couro prensada no aro de alumínio, com cambito de bambu, aro bala e ferragens de afinação em ferro cromado, acompanhando uma chave para afinação.</t>
+    <t>Cuíca 6"”: Corpo alumínio liso polido e chapa grossa, pele couro prensada no aro de alumínio, com cambito de bambu, aro bala e ferragens de afinação em ferro cromado, acompanhando uma chave para afinação.</t>
   </si>
   <si>
     <t>Ganzá- Corpo cilíndrico de alumínio, com enchimento de sementes selecionadas. Medindo aproximadamente 30cm de comprimento, oferece som suave e consistente. Ideal para rodas de samba, capoeira e diversos estilos de percussão.</t>
   </si>
   <si>
-    <t>Kit 12 pares baquetas cônicas repinique</t>
+    <t>Kit 12 pares baquetas cônicas Kit repinique</t>
   </si>
   <si>
     <t>Kit 12 pares de baquetas de caixa</t>
@@ -319,28 +319,28 @@
     <t>Pele de Surdo de 18”: pele leitosa prensada no aro de alumínio</t>
   </si>
   <si>
-    <t>Pele de Surdo de 22": pele couro prensada no aro de alumínio</t>
+    <t>Pele de Surdo de 22"”: pele couro prensada no aro de alumínio</t>
   </si>
   <si>
     <t>Pele de Surdo de 22": pele leitosa prensada no aro de alumínio</t>
   </si>
   <si>
-    <t>Pele de Surdo de 24”: pele couro prensada no aro de alumínio</t>
-  </si>
-  <si>
-    <t>Pele de Surdo de 24": pele leitosa prensada no aro de alumínio</t>
+    <t>Pele de Surdo de 24"”; pele couro prensada no aro de alumínio</t>
+  </si>
+  <si>
+    <t>Pele de Surdo de 24"; pele leitosa prensada no aro de alumínio</t>
   </si>
   <si>
     <t>Pele de Tamborim 6” pele leitosa 250 microns prensada no aro de alumínio</t>
   </si>
   <si>
-    <t>Pele de caixa/repique 12": Pele Caixa Tom Bateria Hidráulica Duplo 12"</t>
+    <t>Pele de caixa/repique 12";: Pele Caixa Tom Bateria Hidráulica Duplo 12"</t>
   </si>
   <si>
     <t>Reco-Reco: instrumento musical confeccionado em bambu, com 30cm de comprimento e circunferência de 8 polegadas</t>
   </si>
   <si>
-    <t>Repique 12”: Corpo alumínio liso polido e chapa grossa, pele leitosa 250 microns prensada no aro de alumínio, 6 afinações, aro bala e ferragens de afinação em ferro cromado, acompanhando uma chave para afinação.</t>
+    <t>Repique 12": Corpo alumínio liso polido e chapa grossa, pele leitosa 250 microns prensada no aro de alumínio, 6 afinações, aro bala e ferragens de afinação em ferro cromado, acompanhando uma chave para afinação.</t>
   </si>
   <si>
     <t>Tamborim 6”: Corpo alumínio liso polido e chapa grossa, pele leitosa 250 microns prensada no aro de alumínio, aro liso e ferragens de afinação em ferro cromado, 8 afinações, acompanhando uma chave para afinação.</t>
@@ -370,7 +370,7 @@
     <t>Pele de Surdo de 20”: pele leitosa prensada no aro de alumínio</t>
   </si>
   <si>
-    <t>Piano acústico vertical de 88 teclas. Dimensões mínimas: 120cm de Altura; 148cm de Largura; 60cm de profundidade. 3 Pedais. Estrutura em madeira maciça; área de tábua harmônica mínima de 1,35 m2; Martelos com feltro premium de pura 1ã; cravelhas niqueladas e compostas em aço de alta resistência, roscadas e anti-corrosão. Tampa do teclado com fechamento suave. Cor preto ou marrom em acabamento polido. Acompanha banco com regulagem de altura. Primeira afinação sem custo e efetuada por rede técnica autorizada pelo fornecedor. Mínimo de 3 anos de garantia.</t>
+    <t>Piano acústico vertical de 88 teclas. Dimensões mínimas: 120cm de Altura; 148cm de Largura; 60cm de profundidade. 3 Pedais. Estrutura em madeira maciça; área de tábua harmônica mínima de 1,35 m2; Martelos com feltro premium de pura lã; cravelhas niqueladas e compostas em aço de alta resistência, roscadas e anti-corrosão. Tampa do teclado com fechamento suave. Cor preto ou marrom em acabamento polido. Acompanha banco com regulagem de altura. Primeira afinação sem custo e efetuada por rede técnica autorizada pelo fornecedor. Mínimo de 3 anos de garantia.</t>
   </si>
   <si>
     <t>Piano Digital vertical, Padrão Yamaha, Cassio ou Roland, com as seguintes especificações mínimas: Teclado GH3 (Graded Hammer 3) ou GHS (Graded Hammer Standard) com 88 teclas; teclas com 3 níveis de sensibilidade ao toque; polifonia de 156 notas; mínimo de 10 timbres; com função metrônomo; alto-falantes embutidos; saída para fone de ouvido estéreo; móvel suporte com estante de partituras acoplada; três pedais; pedal sustain com função meio pedal; cor preta ou marrom; com fonte de alimentação e banco incluídos.</t>

--- a/DOWNLOADS/EDITAIS/U_153176_E_900162025_25-09-2025_09h00m/U_153176_E_900162025_25-09-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_153176_E_900162025_25-09-2025_09h00m/U_153176_E_900162025_25-09-2025_09h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="129">
   <si>
     <t>Nº</t>
   </si>
@@ -259,13 +259,13 @@
     <t>Peças E Acessórios Instrumento Musical Peças E Acessórios Instrumento Musical Tipo: Bag Violão Formato Folk, Aplicação: Instrumentos Musicais, Características Adicionais 1: Revestido Externo Sintético,Espaco Para Acessórios</t>
   </si>
   <si>
-    <t>Feito em ferro, com dois cones de tamanhos diferentes para gerar tons distintos, com acabamento oxidado para melhor ressonância sonora. Usado em diversas tradições musicais brasileiras, como samba e capoeira.</t>
-  </si>
-  <si>
-    <t>Compacto Rum 11” 34 - 75cm - ATABAQUE CORDA PEQUENO (ideal para tocar sentado) 75 cm, com afinação em cunha, feito em madeira nobre peroba rosa, com reforço interno, alça para transporte, couro de boi selecionado e suporte (banco)</t>
-  </si>
-  <si>
-    <t>Agbê XG (Extra Grande) - Agbê extra grande, confeccionado em cabaça natural de alta resistência, rede de contas de plástico resistentes, cabo reforçado em madeira. Som encorpado e vibrante, usado em apresentações de percussão afro-brasileira.</t>
+    <t>Agogô Feito em ferro, com dois cones de tamanhos diferentes para gerar tons distintos, com acabamento oxidado para melhor ressonância sonora. Usado em diversas tradições musicais brasileiras, como samba e capoeira.</t>
+  </si>
+  <si>
+    <t>Atabaque Compacto Rum 11” 3⁄4 - 75cm - ATABAQUE CORDA PEQUENO (ideal para tocar sentado) 75 cm, com afinação em cunha, feito em madeira nobre peroba rosa, com reforço interno, alça para transporte, couro de boi selecionado e suporte (banco)</t>
+  </si>
+  <si>
+    <t>Agbê XG (Extra Grande) – Agbê extra grande, confeccionado em cabaça natural de alta resistência, rede de contas de plástico resistentes, cabo reforçado em madeira. Som encorpado e vibrante, usado em apresentações de percussão afro-brasileira.</t>
   </si>
   <si>
     <t>Agbe M (Médio)- Feito em cabaça média natural, com rede de contas de plástico resistente, cabo de madeira reforçado. Produz som característico, equilibrado, ideal para ritmos afro-brasileiros e samba de roda.</t>
@@ -283,7 +283,7 @@
     <t>Baqueta de tamborim 3 Hastes Cotonete Profissional Artesanal 38cm</t>
   </si>
   <si>
-    <t>Bumpbo grave completo- Feito em madeira nobre (peroba rosa), 22 polegadas de diâmetro, couro de boi selecionado, com reforço interno, afinação em cunha e alças para transporte. Acompanha banco de suporte e chave de afinação. Som grave e profundo, ideal para marcação em blocos carnavalescos e bandas de percussão.</t>
+    <t>Bumbo grave completo- Feito em madeira nobre (peroba rosa), 22 polegadas de diâmetro, couro de boi selecionado, com reforço interno, afinação em cunha e alças para transporte. Acompanha banco de suporte e chave de afinação. Som grave e profundo, ideal para marcação em blocos carnavalescos e bandas de percussão.</t>
   </si>
   <si>
     <t>Berimbau berra boi-Feito com madeira pequiá tratada e envernizada, medindo 1,60m, com cabaça de acabamento refinado e envernizada. Acompanha caxixi artesanal de junco, baqueta de tucum e dobrão de metal. Som grave e potente, ideal para rodas de capoeira tradicionais.</t>
@@ -298,13 +298,13 @@
     <t>Berimbau de tamanho médio, medindo 1,53m, feito com madeira pequiá tratada e envernizada. Acompanha cabaça de acabamento envernizado, caxixi de junco, baqueta de tucum e dobrão de metal. Som intermediário, ideal para diferentes estilos de toque.</t>
   </si>
   <si>
-    <t>Cuíca 6"”: Corpo alumínio liso polido e chapa grossa, pele couro prensada no aro de alumínio, com cambito de bambu, aro bala e ferragens de afinação em ferro cromado, acompanhando uma chave para afinação.</t>
+    <t>Cuíca 6’’: Corpo alumínio liso polido e chapa grossa, pele couro prensada no aro de alumínio, com cambito de bambu, aro bala e ferragens de afinação em ferro cromado, acompanhando uma chave para afinação.</t>
   </si>
   <si>
     <t>Ganzá- Corpo cilíndrico de alumínio, com enchimento de sementes selecionadas. Medindo aproximadamente 30cm de comprimento, oferece som suave e consistente. Ideal para rodas de samba, capoeira e diversos estilos de percussão.</t>
   </si>
   <si>
-    <t>Kit 12 pares baquetas cônicas Kit repinique</t>
+    <t>Kit 12 pares baquetas cônicas repinique</t>
   </si>
   <si>
     <t>Kit 12 pares de baquetas de caixa</t>
@@ -319,28 +319,28 @@
     <t>Pele de Surdo de 18”: pele leitosa prensada no aro de alumínio</t>
   </si>
   <si>
-    <t>Pele de Surdo de 22"”: pele couro prensada no aro de alumínio</t>
-  </si>
-  <si>
-    <t>Pele de Surdo de 22": pele leitosa prensada no aro de alumínio</t>
-  </si>
-  <si>
-    <t>Pele de Surdo de 24"”; pele couro prensada no aro de alumínio</t>
-  </si>
-  <si>
-    <t>Pele de Surdo de 24"; pele leitosa prensada no aro de alumínio</t>
+    <t>Pele de Surdo de 22”: pele couro prensada no aro de alumínio</t>
+  </si>
+  <si>
+    <t>Pele de Surdo de 22”: pele leitosa prensada no aro de alumínio</t>
+  </si>
+  <si>
+    <t>Pele de Surdo de 24”: pele couro prensada no aro de alumínio</t>
+  </si>
+  <si>
+    <t>Pele de Surdo de 24”: pele leitosa prensada no aro de alumínio</t>
   </si>
   <si>
     <t>Pele de Tamborim 6” pele leitosa 250 microns prensada no aro de alumínio</t>
   </si>
   <si>
-    <t>Pele de caixa/repique 12";: Pele Caixa Tom Bateria Hidráulica Duplo 12"</t>
+    <t>Pele de caixa/repique 12'': Pele Caixa Tom Bateria Hidráulica Duplo 12''</t>
   </si>
   <si>
     <t>Reco-Reco: instrumento musical confeccionado em bambu, com 30cm de comprimento e circunferência de 8 polegadas</t>
   </si>
   <si>
-    <t>Repique 12": Corpo alumínio liso polido e chapa grossa, pele leitosa 250 microns prensada no aro de alumínio, 6 afinações, aro bala e ferragens de afinação em ferro cromado, acompanhando uma chave para afinação.</t>
+    <t>Repique 12’’: Corpo alumínio liso polido e chapa grossa, pele leitosa 250 microns prensada no aro de alumínio, 6 afinações, aro bala e ferragens de afinação em ferro cromado, acompanhando uma chave para afinação.</t>
   </si>
   <si>
     <t>Tamborim 6”: Corpo alumínio liso polido e chapa grossa, pele leitosa 250 microns prensada no aro de alumínio, aro liso e ferragens de afinação em ferro cromado, 8 afinações, acompanhando uma chave para afinação.</t>
@@ -386,234 +386,6 @@
   </si>
   <si>
     <t>Capa De Violão Para Transporte, Com Alças De Mão E Também Tiras Para Carregar Nas Costas Com Revestimento Almofadado</t>
-  </si>
-  <si>
-    <t>208,86</t>
-  </si>
-  <si>
-    <t>1457,21</t>
-  </si>
-  <si>
-    <t>541,37</t>
-  </si>
-  <si>
-    <t>365,09</t>
-  </si>
-  <si>
-    <t>470,05</t>
-  </si>
-  <si>
-    <t>44,46</t>
-  </si>
-  <si>
-    <t>44,17</t>
-  </si>
-  <si>
-    <t>45,93</t>
-  </si>
-  <si>
-    <t>537,05</t>
-  </si>
-  <si>
-    <t>329,88</t>
-  </si>
-  <si>
-    <t>302,62</t>
-  </si>
-  <si>
-    <t>268,68</t>
-  </si>
-  <si>
-    <t>300,16</t>
-  </si>
-  <si>
-    <t>237,76</t>
-  </si>
-  <si>
-    <t>117,20</t>
-  </si>
-  <si>
-    <t>246,56</t>
-  </si>
-  <si>
-    <t>174,79</t>
-  </si>
-  <si>
-    <t>205,88</t>
-  </si>
-  <si>
-    <t>195,62</t>
-  </si>
-  <si>
-    <t>59,23</t>
-  </si>
-  <si>
-    <t>250,90</t>
-  </si>
-  <si>
-    <t>59,15</t>
-  </si>
-  <si>
-    <t>320,04</t>
-  </si>
-  <si>
-    <t>65,31</t>
-  </si>
-  <si>
-    <t>20,54</t>
-  </si>
-  <si>
-    <t>27,92</t>
-  </si>
-  <si>
-    <t>43,72</t>
-  </si>
-  <si>
-    <t>402,67</t>
-  </si>
-  <si>
-    <t>120,39</t>
-  </si>
-  <si>
-    <t>18,06</t>
-  </si>
-  <si>
-    <t>23,68</t>
-  </si>
-  <si>
-    <t>902,65</t>
-  </si>
-  <si>
-    <t>1464,94</t>
-  </si>
-  <si>
-    <t>3156,41</t>
-  </si>
-  <si>
-    <t>390,98</t>
-  </si>
-  <si>
-    <t>258,92</t>
-  </si>
-  <si>
-    <t>91,96</t>
-  </si>
-  <si>
-    <t>40617,00</t>
-  </si>
-  <si>
-    <t>6731,87</t>
-  </si>
-  <si>
-    <t>1464,54</t>
-  </si>
-  <si>
-    <t>380,31</t>
-  </si>
-  <si>
-    <t>346,24</t>
-  </si>
-  <si>
-    <t>214,96</t>
-  </si>
-  <si>
-    <t>626,58</t>
-  </si>
-  <si>
-    <t>1624,11</t>
-  </si>
-  <si>
-    <t>1095,27</t>
-  </si>
-  <si>
-    <t>940,10</t>
-  </si>
-  <si>
-    <t>177,84</t>
-  </si>
-  <si>
-    <t>176,68</t>
-  </si>
-  <si>
-    <t>275,58</t>
-  </si>
-  <si>
-    <t>1074,10</t>
-  </si>
-  <si>
-    <t>659,76</t>
-  </si>
-  <si>
-    <t>605,24</t>
-  </si>
-  <si>
-    <t>537,36</t>
-  </si>
-  <si>
-    <t>600,32</t>
-  </si>
-  <si>
-    <t>468,80</t>
-  </si>
-  <si>
-    <t>739,68</t>
-  </si>
-  <si>
-    <t>699,16</t>
-  </si>
-  <si>
-    <t>1647,04</t>
-  </si>
-  <si>
-    <t>782,48</t>
-  </si>
-  <si>
-    <t>236,92</t>
-  </si>
-  <si>
-    <t>1003,60</t>
-  </si>
-  <si>
-    <t>236,60</t>
-  </si>
-  <si>
-    <t>1280,16</t>
-  </si>
-  <si>
-    <t>261,24</t>
-  </si>
-  <si>
-    <t>123,24</t>
-  </si>
-  <si>
-    <t>670,08</t>
-  </si>
-  <si>
-    <t>174,88</t>
-  </si>
-  <si>
-    <t>805,34</t>
-  </si>
-  <si>
-    <t>842,73</t>
-  </si>
-  <si>
-    <t>866,88</t>
-  </si>
-  <si>
-    <t>236,80</t>
-  </si>
-  <si>
-    <t>1805,30</t>
-  </si>
-  <si>
-    <t>4394,82</t>
-  </si>
-  <si>
-    <t>517,84</t>
-  </si>
-  <si>
-    <t>183,92</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -1034,20 +806,20 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" t="s">
-        <v>167</v>
+      <c r="E2">
+        <v>208.86</v>
+      </c>
+      <c r="F2">
+        <v>626.58</v>
       </c>
       <c r="G2" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H2" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="I2" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1063,20 +835,20 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" t="s">
-        <v>125</v>
+      <c r="E3">
+        <v>1457.21</v>
+      </c>
+      <c r="F3">
+        <v>1457.21</v>
       </c>
       <c r="G3" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H3" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="I3" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1092,20 +864,20 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>541.37</v>
+      </c>
+      <c r="F4">
+        <v>1624.11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" t="s">
         <v>126</v>
       </c>
-      <c r="F4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H4" t="s">
-        <v>202</v>
-      </c>
       <c r="I4" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1121,20 +893,20 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" t="s">
-        <v>169</v>
+      <c r="E5">
+        <v>365.09</v>
+      </c>
+      <c r="F5">
+        <v>1095.27</v>
       </c>
       <c r="G5" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H5" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="I5" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1150,20 +922,20 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" t="s">
-        <v>170</v>
+      <c r="E6">
+        <v>470.05</v>
+      </c>
+      <c r="F6">
+        <v>940.1</v>
       </c>
       <c r="G6" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H6" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="I6" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1179,20 +951,20 @@
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" t="s">
-        <v>171</v>
+      <c r="E7">
+        <v>44.46</v>
+      </c>
+      <c r="F7">
+        <v>177.84</v>
       </c>
       <c r="G7" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H7" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I7" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1208,20 +980,20 @@
       <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" t="s">
-        <v>172</v>
+      <c r="E8">
+        <v>44.17</v>
+      </c>
+      <c r="F8">
+        <v>176.68</v>
       </c>
       <c r="G8" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H8" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I8" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1237,20 +1009,20 @@
       <c r="D9">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F9" t="s">
-        <v>173</v>
+      <c r="E9">
+        <v>45.93</v>
+      </c>
+      <c r="F9">
+        <v>275.58</v>
       </c>
       <c r="G9" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H9" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1266,20 +1038,20 @@
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F10" t="s">
-        <v>174</v>
+      <c r="E10">
+        <v>537.05</v>
+      </c>
+      <c r="F10">
+        <v>1074.1</v>
       </c>
       <c r="G10" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="I10" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1295,20 +1067,20 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" t="s">
-        <v>175</v>
+      <c r="E11">
+        <v>329.88</v>
+      </c>
+      <c r="F11">
+        <v>659.76</v>
       </c>
       <c r="G11" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H11" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="I11" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1324,20 +1096,20 @@
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F12" t="s">
-        <v>176</v>
+      <c r="E12">
+        <v>302.62</v>
+      </c>
+      <c r="F12">
+        <v>605.24</v>
       </c>
       <c r="G12" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H12" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="I12" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1353,20 +1125,20 @@
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" t="s">
-        <v>177</v>
+      <c r="E13">
+        <v>268.68</v>
+      </c>
+      <c r="F13">
+        <v>537.36</v>
       </c>
       <c r="G13" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H13" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="I13" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1382,20 +1154,20 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14" t="s">
-        <v>178</v>
+      <c r="E14">
+        <v>300.16</v>
+      </c>
+      <c r="F14">
+        <v>600.3200000000001</v>
       </c>
       <c r="G14" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H14" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="I14" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1411,20 +1183,20 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" t="s">
-        <v>137</v>
+      <c r="E15">
+        <v>237.76</v>
+      </c>
+      <c r="F15">
+        <v>237.76</v>
       </c>
       <c r="G15" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H15" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I15" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1440,20 +1212,20 @@
       <c r="D16">
         <v>4</v>
       </c>
-      <c r="E16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" t="s">
-        <v>179</v>
+      <c r="E16">
+        <v>117.2</v>
+      </c>
+      <c r="F16">
+        <v>468.8</v>
       </c>
       <c r="G16" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H16" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="I16" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1469,20 +1241,20 @@
       <c r="D17">
         <v>3</v>
       </c>
-      <c r="E17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F17" t="s">
-        <v>180</v>
+      <c r="E17">
+        <v>246.56</v>
+      </c>
+      <c r="F17">
+        <v>739.6800000000001</v>
       </c>
       <c r="G17" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="H17" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I17" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1498,20 +1270,20 @@
       <c r="D18">
         <v>4</v>
       </c>
-      <c r="E18" t="s">
-        <v>140</v>
-      </c>
-      <c r="F18" t="s">
-        <v>181</v>
+      <c r="E18">
+        <v>174.79</v>
+      </c>
+      <c r="F18">
+        <v>699.16</v>
       </c>
       <c r="G18" t="s">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="H18" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I18" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1527,20 +1299,20 @@
       <c r="D19">
         <v>8</v>
       </c>
-      <c r="E19" t="s">
-        <v>141</v>
-      </c>
-      <c r="F19" t="s">
-        <v>182</v>
+      <c r="E19">
+        <v>205.88</v>
+      </c>
+      <c r="F19">
+        <v>1647.04</v>
       </c>
       <c r="G19" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H19" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I19" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1556,20 +1328,20 @@
       <c r="D20">
         <v>4</v>
       </c>
-      <c r="E20" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" t="s">
-        <v>183</v>
+      <c r="E20">
+        <v>195.62</v>
+      </c>
+      <c r="F20">
+        <v>782.48</v>
       </c>
       <c r="G20" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H20" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I20" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1585,20 +1357,20 @@
       <c r="D21">
         <v>4</v>
       </c>
-      <c r="E21" t="s">
-        <v>143</v>
-      </c>
-      <c r="F21" t="s">
-        <v>184</v>
+      <c r="E21">
+        <v>59.23</v>
+      </c>
+      <c r="F21">
+        <v>236.92</v>
       </c>
       <c r="G21" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H21" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I21" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1614,20 +1386,20 @@
       <c r="D22">
         <v>4</v>
       </c>
-      <c r="E22" t="s">
-        <v>144</v>
-      </c>
-      <c r="F22" t="s">
-        <v>185</v>
+      <c r="E22">
+        <v>250.9</v>
+      </c>
+      <c r="F22">
+        <v>1003.6</v>
       </c>
       <c r="G22" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H22" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I22" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1643,20 +1415,20 @@
       <c r="D23">
         <v>4</v>
       </c>
-      <c r="E23" t="s">
-        <v>145</v>
-      </c>
-      <c r="F23" t="s">
-        <v>186</v>
+      <c r="E23">
+        <v>59.15</v>
+      </c>
+      <c r="F23">
+        <v>236.6</v>
       </c>
       <c r="G23" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H23" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1672,20 +1444,20 @@
       <c r="D24">
         <v>4</v>
       </c>
-      <c r="E24" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" t="s">
-        <v>187</v>
+      <c r="E24">
+        <v>320.04</v>
+      </c>
+      <c r="F24">
+        <v>1280.16</v>
       </c>
       <c r="G24" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H24" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I24" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1701,20 +1473,20 @@
       <c r="D25">
         <v>4</v>
       </c>
-      <c r="E25" t="s">
-        <v>147</v>
-      </c>
-      <c r="F25" t="s">
-        <v>188</v>
+      <c r="E25">
+        <v>65.31</v>
+      </c>
+      <c r="F25">
+        <v>261.24</v>
       </c>
       <c r="G25" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H25" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I25" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1730,20 +1502,20 @@
       <c r="D26">
         <v>6</v>
       </c>
-      <c r="E26" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" t="s">
-        <v>189</v>
+      <c r="E26">
+        <v>20.54</v>
+      </c>
+      <c r="F26">
+        <v>123.24</v>
       </c>
       <c r="G26" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H26" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I26" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1759,20 +1531,20 @@
       <c r="D27">
         <v>24</v>
       </c>
-      <c r="E27" t="s">
-        <v>149</v>
-      </c>
-      <c r="F27" t="s">
-        <v>190</v>
+      <c r="E27">
+        <v>27.92</v>
+      </c>
+      <c r="F27">
+        <v>670.08</v>
       </c>
       <c r="G27" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H27" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I27" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1788,20 +1560,20 @@
       <c r="D28">
         <v>4</v>
       </c>
-      <c r="E28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F28" t="s">
-        <v>191</v>
+      <c r="E28">
+        <v>43.72</v>
+      </c>
+      <c r="F28">
+        <v>174.88</v>
       </c>
       <c r="G28" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H28" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="I28" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1817,20 +1589,20 @@
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29" t="s">
-        <v>151</v>
-      </c>
-      <c r="F29" t="s">
-        <v>192</v>
+      <c r="E29">
+        <v>402.67</v>
+      </c>
+      <c r="F29">
+        <v>805.34</v>
       </c>
       <c r="G29" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H29" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I29" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1846,20 +1618,20 @@
       <c r="D30">
         <v>7</v>
       </c>
-      <c r="E30" t="s">
-        <v>152</v>
-      </c>
-      <c r="F30" t="s">
-        <v>193</v>
+      <c r="E30">
+        <v>120.39</v>
+      </c>
+      <c r="F30">
+        <v>842.73</v>
       </c>
       <c r="G30" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H30" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I30" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1875,20 +1647,20 @@
       <c r="D31">
         <v>48</v>
       </c>
-      <c r="E31" t="s">
-        <v>153</v>
-      </c>
-      <c r="F31" t="s">
-        <v>194</v>
+      <c r="E31">
+        <v>18.06</v>
+      </c>
+      <c r="F31">
+        <v>866.8799999999999</v>
       </c>
       <c r="G31" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H31" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I31" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1904,20 +1676,20 @@
       <c r="D32">
         <v>10</v>
       </c>
-      <c r="E32" t="s">
-        <v>154</v>
-      </c>
-      <c r="F32" t="s">
-        <v>195</v>
+      <c r="E32">
+        <v>23.68</v>
+      </c>
+      <c r="F32">
+        <v>236.8</v>
       </c>
       <c r="G32" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H32" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I32" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1933,20 +1705,20 @@
       <c r="D33">
         <v>2</v>
       </c>
-      <c r="E33" t="s">
-        <v>155</v>
-      </c>
-      <c r="F33" t="s">
-        <v>196</v>
+      <c r="E33">
+        <v>902.65</v>
+      </c>
+      <c r="F33">
+        <v>1805.3</v>
       </c>
       <c r="G33" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H33" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="I33" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1962,20 +1734,20 @@
       <c r="D34">
         <v>3</v>
       </c>
-      <c r="E34" t="s">
-        <v>156</v>
-      </c>
-      <c r="F34" t="s">
-        <v>197</v>
+      <c r="E34">
+        <v>1464.94</v>
+      </c>
+      <c r="F34">
+        <v>4394.82</v>
       </c>
       <c r="G34" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H34" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="I34" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1991,20 +1763,20 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" t="s">
-        <v>157</v>
-      </c>
-      <c r="F35" t="s">
-        <v>157</v>
+      <c r="E35">
+        <v>3156.41</v>
+      </c>
+      <c r="F35">
+        <v>3156.41</v>
       </c>
       <c r="G35" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H35" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I35" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2020,20 +1792,20 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" t="s">
-        <v>158</v>
-      </c>
-      <c r="F36" t="s">
-        <v>158</v>
+      <c r="E36">
+        <v>390.98</v>
+      </c>
+      <c r="F36">
+        <v>390.98</v>
       </c>
       <c r="G36" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H36" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I36" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2049,20 +1821,20 @@
       <c r="D37">
         <v>2</v>
       </c>
-      <c r="E37" t="s">
-        <v>159</v>
-      </c>
-      <c r="F37" t="s">
-        <v>198</v>
+      <c r="E37">
+        <v>258.92</v>
+      </c>
+      <c r="F37">
+        <v>517.84</v>
       </c>
       <c r="G37" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H37" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I37" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2078,20 +1850,20 @@
       <c r="D38">
         <v>2</v>
       </c>
-      <c r="E38" t="s">
-        <v>160</v>
-      </c>
-      <c r="F38" t="s">
-        <v>199</v>
+      <c r="E38">
+        <v>91.95999999999999</v>
+      </c>
+      <c r="F38">
+        <v>183.92</v>
       </c>
       <c r="G38" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H38" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I38" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2107,20 +1879,20 @@
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" t="s">
-        <v>161</v>
-      </c>
-      <c r="F39" t="s">
-        <v>161</v>
+      <c r="E39">
+        <v>40617</v>
+      </c>
+      <c r="F39">
+        <v>40617</v>
       </c>
       <c r="G39" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H39" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I39" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2136,20 +1908,20 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" t="s">
-        <v>162</v>
-      </c>
-      <c r="F40" t="s">
-        <v>162</v>
+      <c r="E40">
+        <v>6731.87</v>
+      </c>
+      <c r="F40">
+        <v>6731.87</v>
       </c>
       <c r="G40" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H40" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I40" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2165,20 +1937,20 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" t="s">
-        <v>163</v>
-      </c>
-      <c r="F41" t="s">
-        <v>163</v>
+      <c r="E41">
+        <v>1464.54</v>
+      </c>
+      <c r="F41">
+        <v>1464.54</v>
       </c>
       <c r="G41" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H41" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I41" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2194,20 +1966,20 @@
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42" t="s">
-        <v>164</v>
-      </c>
-      <c r="F42" t="s">
-        <v>164</v>
+      <c r="E42">
+        <v>380.31</v>
+      </c>
+      <c r="F42">
+        <v>380.31</v>
       </c>
       <c r="G42" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H42" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I42" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2223,20 +1995,20 @@
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43" t="s">
-        <v>165</v>
-      </c>
-      <c r="F43" t="s">
-        <v>165</v>
+      <c r="E43">
+        <v>346.24</v>
+      </c>
+      <c r="F43">
+        <v>346.24</v>
       </c>
       <c r="G43" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H43" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I43" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2252,20 +2024,20 @@
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44" t="s">
-        <v>166</v>
-      </c>
-      <c r="F44" t="s">
-        <v>166</v>
+      <c r="E44">
+        <v>214.96</v>
+      </c>
+      <c r="F44">
+        <v>214.96</v>
       </c>
       <c r="G44" t="s">
-        <v>200</v>
+        <v>124</v>
       </c>
       <c r="H44" t="s">
-        <v>203</v>
+        <v>127</v>
       </c>
       <c r="I44" t="s">
-        <v>204</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
